--- a/database/temp/group_b.xlsx
+++ b/database/temp/group_b.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -40,18 +40,68 @@
   </si>
   <si>
     <t>PROXY_PASS</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>Anastasia.Jimenez1990@gmail.com</t>
+  </si>
+  <si>
+    <t>R4ehM6vA8xtaDpwm</t>
+  </si>
+  <si>
+    <t>81.28.96.172:41489</t>
+  </si>
+  <si>
+    <t>a4ZJCKXpyPxqtgAt</t>
+  </si>
+  <si>
+    <t>WZRYymEeVjfQeR6Z</t>
+  </si>
+  <si>
+    <t>23.94.179.27:1311</t>
+  </si>
+  <si>
+    <t>tqD6fggLah4JM24d</t>
+  </si>
+  <si>
+    <t>SLfNnLB2fbV9s4NX</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Martina.gramdominator@gmail.com</t>
+  </si>
+  <si>
+    <t>Ekmyd38VrWUTZnGM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,6 +231,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -363,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -478,53 +536,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -846,11 +926,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -875,7 +962,54 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/temp/group_b.xlsx
+++ b/database/temp/group_b.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Upwork\2020\gmail_app\gmail_app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="group_b" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>FIRSTFROMNAME</t>
   </si>
@@ -42,19 +42,19 @@
     <t>PROXY_PASS</t>
   </si>
   <si>
-    <t>Anastasia</t>
-  </si>
-  <si>
-    <t>Jimenez</t>
-  </si>
-  <si>
-    <t>Anastasia.Jimenez1990@gmail.com</t>
-  </si>
-  <si>
-    <t>R4ehM6vA8xtaDpwm</t>
-  </si>
-  <si>
-    <t>81.28.96.172:41489</t>
+    <t>Elva</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>Elva.Lynn1987@gmail.com</t>
+  </si>
+  <si>
+    <t>C9nqK4Xz6gbUocjf</t>
+  </si>
+  <si>
+    <t>81.28.96.172:43739</t>
   </si>
   <si>
     <t>a4ZJCKXpyPxqtgAt</t>
@@ -63,45 +63,31 @@
     <t>WZRYymEeVjfQeR6Z</t>
   </si>
   <si>
-    <t>23.94.179.27:1311</t>
-  </si>
-  <si>
-    <t>tqD6fggLah4JM24d</t>
-  </si>
-  <si>
-    <t>SLfNnLB2fbV9s4NX</t>
-  </si>
-  <si>
-    <t>Martina</t>
-  </si>
-  <si>
-    <t>Nelson</t>
-  </si>
-  <si>
-    <t>Martina.gramdominator@gmail.com</t>
-  </si>
-  <si>
-    <t>Ekmyd38VrWUTZnGM</t>
+    <t>Daphne</t>
+  </si>
+  <si>
+    <t>Boone</t>
+  </si>
+  <si>
+    <t>Daphne.Boone2002@gmail.com</t>
+  </si>
+  <si>
+    <t>aPxbySqRts82761Y</t>
+  </si>
+  <si>
+    <t>81.28.96.172:30660</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,7 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,14 +215,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -421,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -536,75 +514,53 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -680,7 +636,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -692,7 +648,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -709,9 +665,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -739,14 +695,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -774,6 +747,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -929,15 +919,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -962,54 +947,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>